--- a/ppr_project/media/xlsx/7_asps2.xlsx
+++ b/ppr_project/media/xlsx/7_asps2.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\ppr_project\Графики\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\ivan\Dev\ppr_project\ppr_project\media\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22F0407C-1063-4150-A19F-5FFE6B2FE780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F820369E-97D5-40D0-9231-745D25A36741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3739F58D-AB0A-4DB9-9F2B-4143C82A8AC9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{3739F58D-AB0A-4DB9-9F2B-4143C82A8AC9}"/>
   </bookViews>
   <sheets>
     <sheet name="07_АСПС ПТ и КЗ КЦ-2" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'07_АСПС ПТ и КЗ КЦ-2'!$A$1:$Q$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'07_АСПС ПТ и КЗ КЦ-2'!$A$1:$R$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="34">
   <si>
     <t>Объект</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>КТП АВОг ГПА-23</t>
+  </si>
+  <si>
+    <t>Проверка</t>
   </si>
 </sst>
 </file>
@@ -640,10 +643,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q511"/>
+  <dimension ref="A1:R511"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="M1" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -656,7 +659,7 @@
     <col min="15" max="16384" width="9.1796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -708,8 +711,11 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="R1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -753,7 +759,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -797,7 +803,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -841,7 +847,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -885,7 +891,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>24</v>
       </c>
@@ -913,7 +919,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>24</v>
       </c>
@@ -941,7 +947,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>27</v>
       </c>
@@ -969,7 +975,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -997,7 +1003,7 @@
       </c>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:17" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1025,7 +1031,7 @@
       </c>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:17" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>32</v>
       </c>
@@ -1053,11 +1059,11 @@
       </c>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:17" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" s="15" customFormat="1" ht="19" x14ac:dyDescent="0.35">
       <c r="A12" s="14"/>
       <c r="M12" s="14"/>
     </row>
-    <row r="13" spans="1:17" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
       <c r="B13" s="17"/>
       <c r="C13" s="16"/>
@@ -1075,7 +1081,7 @@
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="16"/>
@@ -1093,7 +1099,7 @@
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="17"/>
       <c r="C15" s="16"/>
@@ -1111,7 +1117,7 @@
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
     </row>
-    <row r="16" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16"/>
       <c r="B16" s="17"/>
       <c r="C16" s="16"/>
@@ -9227,6 +9233,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="59" fitToHeight="0" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="56" fitToHeight="0" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId1"/>
 </worksheet>
 </file>